--- a/190429_buck_cutoff.xlsx
+++ b/190429_buck_cutoff.xlsx
@@ -9,14 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11685" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11685" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="buck20" sheetId="1" r:id="rId1"/>
-    <sheet name="buck14" sheetId="3" r:id="rId2"/>
-    <sheet name="coul28" sheetId="2" r:id="rId3"/>
-    <sheet name="coul8" sheetId="4" r:id="rId4"/>
-    <sheet name="one" sheetId="5" r:id="rId5"/>
+    <sheet name="buck27" sheetId="6" r:id="rId1"/>
+    <sheet name="buck20" sheetId="1" r:id="rId2"/>
+    <sheet name="buck14" sheetId="3" r:id="rId3"/>
+    <sheet name="coul28" sheetId="2" r:id="rId4"/>
+    <sheet name="coul8" sheetId="4" r:id="rId5"/>
+    <sheet name="one" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -97,6 +98,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>buck cut 27</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -138,11 +164,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>buck20!$B$4</c:f>
+              <c:f>buck27!$B$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>20</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -171,7 +197,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>buck20!$C$4:$C$31</c:f>
+              <c:f>buck27!$C$4:$C$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
@@ -264,93 +290,93 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>buck20!$D$4:$D$31</c:f>
+              <c:f>buck27!$D$4:$D$31</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
-                  <c:v>-431.75015999999999</c:v>
+                  <c:v>-431.75198</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-431.75017000000003</c:v>
+                  <c:v>-431.75198</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-431.75027</c:v>
+                  <c:v>-431.75207999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-431.75018999999998</c:v>
+                  <c:v>-431.75200999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-431.74986999999999</c:v>
+                  <c:v>-431.75166999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-431.75002000000001</c:v>
+                  <c:v>-431.75184000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-431.75042999999999</c:v>
+                  <c:v>-431.75225</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-431.75056000000001</c:v>
+                  <c:v>-431.75236999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-431.75031000000001</c:v>
+                  <c:v>-431.75216</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-431.75006000000002</c:v>
+                  <c:v>-431.75187</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-431.74986000000001</c:v>
+                  <c:v>-431.75166999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-431.74982999999997</c:v>
+                  <c:v>-431.75164000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-431.74986999999999</c:v>
+                  <c:v>-431.75168000000002</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-431.74995999999999</c:v>
+                  <c:v>-431.75178</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-431.75006000000002</c:v>
+                  <c:v>-431.75187</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-431.75013999999999</c:v>
+                  <c:v>-431.75195000000002</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-431.75020999999998</c:v>
+                  <c:v>-431.75202000000002</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-431.75026000000003</c:v>
+                  <c:v>-431.75207</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-431.75029999999998</c:v>
+                  <c:v>-431.75211000000002</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-431.75031000000001</c:v>
+                  <c:v>-431.75213000000002</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-431.75036999999998</c:v>
+                  <c:v>-431.75214</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-431.75033000000002</c:v>
+                  <c:v>-431.75214</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-431.75031999999999</c:v>
+                  <c:v>-431.75213000000002</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-431.75033000000002</c:v>
+                  <c:v>-431.75214</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-431.75031000000001</c:v>
+                  <c:v>-431.75211999999999</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-431.75038000000001</c:v>
+                  <c:v>-431.75211999999999</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-431.75044000000003</c:v>
+                  <c:v>-431.75211000000002</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-431.75027999999998</c:v>
+                  <c:v>-431.75209000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -358,7 +384,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8E24-47E4-BBCC-0FC554668A21}"/>
+              <c16:uniqueId val="{00000000-A0B3-4111-8FC9-A358FFE4F0F7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -394,6 +420,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>coul cut</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -439,6 +521,8 @@
         <c:axId val="508269632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="-431.74299999999999"/>
+          <c:min val="-431.75299999999999"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -456,6 +540,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>energy</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.0000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -543,6 +683,585 @@
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>coul cut 8</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>coul8!$B$4:$B$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>27</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>coul8!$E$4:$E$26</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000000</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>4.6916076000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.6908513000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.6904196000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.6901501999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.6900209999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.6899385000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.6898606000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.6898197000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.6897843999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.6897633000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.6897479999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.6897342000000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.6897237000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.6897153999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.6897092000000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.6897038000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.6897000999999996</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.6896959999999996</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.6896934999999997</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.6896908000000002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.6896887999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.6896871000000004</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.6896854000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredSeriesTitle>
+                <c15:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>coul8!#REF!</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>#REF!</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c15:tx>
+              </c15:filteredSeriesTitle>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F522-4F14-91E6-E532028F2AA4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="507761640"/>
+        <c:axId val="507761968"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="507761640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>buck cut</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="507761968"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="507761968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="4.6919999999999984"/>
+          <c:min val="4.6884999999999986"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>a lattice parameter</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0000" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="507761640"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -924,7 +1643,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1321,6 +2040,50 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>buck cut 27</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB" sz="1400">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -1334,13 +2097,27 @@
         <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
             <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
+                <a:sysClr val="windowText" lastClr="000000">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
-                </a:schemeClr>
+                </a:sysClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -1362,11 +2139,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>buck20!$B$4</c:f>
+              <c:f>buck27!$B$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>20</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1395,7 +2172,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>buck20!$C$4:$C$31</c:f>
+              <c:f>buck27!$C$4:$C$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
@@ -1488,93 +2265,93 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>buck20!$E$4:$E$31</c:f>
+              <c:f>buck27!$E$4:$E$31</c:f>
               <c:numCache>
                 <c:formatCode>0.0000000</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
-                  <c:v>4.6897092999999996</c:v>
+                  <c:v>4.6896861999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.6897000000000002</c:v>
+                  <c:v>4.6896861000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.6897042999999998</c:v>
+                  <c:v>4.6896858999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.6897045000000004</c:v>
+                  <c:v>4.6896861000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>4.6896870000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.6896864000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>4.6896852000000004</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.6897048000000003</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.6897035999999996</c:v>
-                </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.6897038000000002</c:v>
+                  <c:v>4.6896854000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.6897161000000001</c:v>
+                  <c:v>4.6896857000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.6897047000000001</c:v>
+                  <c:v>4.6896863</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.6897051999999997</c:v>
+                  <c:v>4.6896867999999996</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.6897051000000003</c:v>
+                  <c:v>4.6896867999999996</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.6897069</c:v>
+                  <c:v>4.6896883000000003</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.6897041000000002</c:v>
+                  <c:v>4.6896883000000003</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.6897045000000004</c:v>
+                  <c:v>4.6896861000000003</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.6897044000000001</c:v>
+                  <c:v>4.689686</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.6897029000000003</c:v>
+                  <c:v>4.6896845000000003</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.6897055999999999</c:v>
+                  <c:v>4.6896871999999998</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.6897023000000004</c:v>
+                  <c:v>4.6896839999999997</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.6897047000000001</c:v>
+                  <c:v>4.6896863</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.6897434999999996</c:v>
+                  <c:v>4.6896845000000003</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4.6897053</c:v>
+                  <c:v>4.6896868999999999</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4.6897029999999997</c:v>
+                  <c:v>4.6896845999999996</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4.6897034</c:v>
+                  <c:v>4.6896849999999999</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4.6897038999999996</c:v>
+                  <c:v>4.6896855000000004</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4.6896826000000003</c:v>
+                  <c:v>4.6896830999999999</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>4.6896921000000003</c:v>
+                  <c:v>4.6896864999999996</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>4.6897041000000002</c:v>
+                  <c:v>4.6896858000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1582,7 +2359,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4613-4C4D-9388-5886A61085C2}"/>
+              <c16:uniqueId val="{00000000-D1C0-4E15-901C-CB53792C2251}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1618,6 +2395,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>coul cut</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1663,6 +2496,7 @@
         <c:axId val="507761968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="4.6899999999999995"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1680,6 +2514,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>a lattice parameter</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.00000" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1781,361 +2671,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:yVal>
-            <c:numRef>
-              <c:f>buck20!$N$4:$N$31</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="28"/>
-                <c:pt idx="0">
-                  <c:v>-2024.7827406284878</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-2024.7787722490002</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-2024.7810977451609</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-2024.780808918855</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-2024.7709754409241</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-2024.7801411940961</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-2024.7815458725479</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-2024.7822418841281</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-2024.7863799869911</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-2024.7802856072822</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-2024.779563541272</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-2024.779379675133</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-2024.780344413103</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-2024.7795575868361</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-2024.7801992572702</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-2024.7805312586161</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-2024.780211912609</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-2024.7816121234562</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-2024.7803749356901</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-2024.7814580334571</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-2024.7984913300947</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>-2024.781810877749</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>-2024.7807709549597</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>-2024.7809905521221</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>-2024.781112633209</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>-2024.7722446293881</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>-2024.7766276395241</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>-2024.7810582921479</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7A02-49CE-B480-8348096FC92D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="230230112"/>
-        <c:axId val="556301504"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="230230112"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="556301504"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="556301504"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="230230112"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
       <c:tx>
         <c:rich>
           <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
@@ -2156,7 +2691,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>nrg</a:t>
+              <a:t>buck cut 20</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2202,11 +2737,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>buck14!$B$4</c:f>
+              <c:f>buck20!$B$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>14</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2235,7 +2770,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>buck14!$C$4:$C$31</c:f>
+              <c:f>buck20!$C$4:$C$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
@@ -2328,93 +2863,93 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>buck14!$D$4:$D$31</c:f>
+              <c:f>buck20!$D$4:$D$31</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
-                  <c:v>-431.74437999999998</c:v>
+                  <c:v>-431.75015999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-431.74439000000001</c:v>
+                  <c:v>-431.75017000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-431.74450000000002</c:v>
+                  <c:v>-431.75027</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-431.74441999999999</c:v>
+                  <c:v>-431.75018999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-431.74407000000002</c:v>
+                  <c:v>-431.74986999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-431.74425000000002</c:v>
+                  <c:v>-431.75002000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-431.74466000000001</c:v>
+                  <c:v>-431.75042999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-431.74477999999999</c:v>
+                  <c:v>-431.75056000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-431.74457000000001</c:v>
+                  <c:v>-431.75031000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-431.74428</c:v>
+                  <c:v>-431.75006000000002</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-431.74409000000003</c:v>
+                  <c:v>-431.74986000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-431.74405000000002</c:v>
+                  <c:v>-431.74982999999997</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-431.74409000000003</c:v>
+                  <c:v>-431.74986999999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-431.74428</c:v>
+                  <c:v>-431.74995999999999</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-431.74428</c:v>
+                  <c:v>-431.75006000000002</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-431.74435999999997</c:v>
+                  <c:v>-431.75013999999999</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-431.74444</c:v>
+                  <c:v>-431.75020999999998</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-431.74448000000001</c:v>
+                  <c:v>-431.75026000000003</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-431.74452000000002</c:v>
+                  <c:v>-431.75029999999998</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-431.74453999999997</c:v>
+                  <c:v>-431.75031000000001</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-431.74506000000002</c:v>
+                  <c:v>-431.75036999999998</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-431.74455999999998</c:v>
+                  <c:v>-431.75033000000002</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-431.74455</c:v>
+                  <c:v>-431.75031999999999</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-431.74455</c:v>
+                  <c:v>-431.75033000000002</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-431.74453999999997</c:v>
+                  <c:v>-431.75031000000001</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-431.74453999999997</c:v>
+                  <c:v>-431.75038000000001</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-431.74459999999999</c:v>
+                  <c:v>-431.75044000000003</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-431.74450999999999</c:v>
+                  <c:v>-431.75027999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2422,7 +2957,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0A60-4998-9747-C85D846826EC}"/>
+              <c16:uniqueId val="{00000000-8E24-47E4-BBCC-0FC554668A21}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2458,6 +2993,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>coul cut</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2503,6 +3094,8 @@
         <c:axId val="508269632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="-431.74299999999999"/>
+          <c:min val="-431.75299999999999"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2520,6 +3113,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>energy</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.0000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2606,7 +3255,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2626,13 +3275,27 @@
           <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
               <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
+                  <a:sysClr val="windowText" lastClr="000000">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  </a:sysClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -2640,9 +3303,14 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>cell a</a:t>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>buck cut 20</a:t>
             </a:r>
+            <a:endParaRPr lang="en-GB" sz="1400">
+              <a:effectLst/>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -2659,13 +3327,27 @@
         <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
             <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
+                <a:sysClr val="windowText" lastClr="000000">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
-                </a:schemeClr>
+                </a:sysClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -2687,11 +3369,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>buck14!$B$4</c:f>
+              <c:f>buck20!$B$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>14</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2720,7 +3402,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>buck14!$C$4:$C$31</c:f>
+              <c:f>buck20!$C$4:$C$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
@@ -2813,93 +3495,93 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>buck14!$E$4:$E$31</c:f>
+              <c:f>buck20!$E$4:$E$31</c:f>
               <c:numCache>
                 <c:formatCode>0.0000000</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
-                  <c:v>4.6897641999999999</c:v>
+                  <c:v>4.6897092999999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.6897640000000003</c:v>
+                  <c:v>4.6897000000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.6897637999999997</c:v>
+                  <c:v>4.6897042999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.6897640000000003</c:v>
+                  <c:v>4.6897045000000004</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.6897641999999999</c:v>
+                  <c:v>4.6896852000000004</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.6897643000000002</c:v>
+                  <c:v>4.6897048000000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.6897631000000004</c:v>
+                  <c:v>4.6897035999999996</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.6897633000000001</c:v>
+                  <c:v>4.6897038000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.6897637000000003</c:v>
+                  <c:v>4.6897161000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.6897641999999999</c:v>
+                  <c:v>4.6897047000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.6897646999999996</c:v>
+                  <c:v>4.6897051999999997</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.6897646999999996</c:v>
+                  <c:v>4.6897051000000003</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.6897659000000003</c:v>
+                  <c:v>4.6897069</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.6897640000000003</c:v>
+                  <c:v>4.6897041000000002</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.6897640000000003</c:v>
+                  <c:v>4.6897045000000004</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.6897639</c:v>
+                  <c:v>4.6897044000000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.6897624000000002</c:v>
+                  <c:v>4.6897029000000003</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.6897650999999998</c:v>
+                  <c:v>4.6897055999999999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.6897618999999997</c:v>
+                  <c:v>4.6897023000000004</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.6897641999999999</c:v>
+                  <c:v>4.6897047000000001</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.6897378999999999</c:v>
+                  <c:v>4.6897434999999996</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4.6897647999999998</c:v>
+                  <c:v>4.6897053</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4.6897624999999996</c:v>
+                  <c:v>4.6897029999999997</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4.6897628999999998</c:v>
+                  <c:v>4.6897034</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4.6897634000000004</c:v>
+                  <c:v>4.6897038999999996</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4.6897609999999998</c:v>
+                  <c:v>4.6896826000000003</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>4.6897117000000001</c:v>
+                  <c:v>4.6896921000000003</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>4.6897636</c:v>
+                  <c:v>4.6897041000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2907,7 +3589,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-00CE-49D9-8D61-FE97A505AC60}"/>
+              <c16:uniqueId val="{00000000-4613-4C4D-9388-5886A61085C2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2943,6 +3625,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>coul cut</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2988,6 +3726,8 @@
         <c:axId val="507761968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="4.6899999999999995"/>
+          <c:min val="4.6894999999999998"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3005,6 +3745,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>a lattice parameter</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.00000" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3091,7 +3887,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3126,7 +3922,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>nrg</a:t>
+              <a:t>buck cut 14</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -3170,6 +3966,17 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>buck14!$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>14</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:noFill/>
@@ -3194,185 +4001,194 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>coul28!$B$4:$B$26</c:f>
+              <c:f>buck14!$C$4:$C$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="5">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="6">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="7">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="8">
                   <c:v>9</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="9">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="10">
                   <c:v>11</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="11">
                   <c:v>12</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="12">
                   <c:v>13</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="13">
                   <c:v>14</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="14">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="15">
                   <c:v>16</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="16">
                   <c:v>17</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="17">
                   <c:v>18</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="18">
                   <c:v>19</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="19">
                   <c:v>20</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="20">
                   <c:v>21</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="21">
                   <c:v>22</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="22">
                   <c:v>23</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="23">
                   <c:v>24</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="24">
                   <c:v>25</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="25">
                   <c:v>26</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="26">
                   <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>coul28!$D$4:$D$26</c:f>
+              <c:f>buck14!$D$4:$D$31</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
-                  <c:v>-431.58983999999998</c:v>
+                  <c:v>-431.74437999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-431.63956999999999</c:v>
+                  <c:v>-431.74439000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-431.68216999999999</c:v>
+                  <c:v>-431.74450000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-431.70553000000001</c:v>
+                  <c:v>-431.74441999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-431.72106000000002</c:v>
+                  <c:v>-431.74407000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-431.72930000000002</c:v>
+                  <c:v>-431.74425000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-431.73423000000003</c:v>
+                  <c:v>-431.74466000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-431.7321</c:v>
+                  <c:v>-431.74477999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-431.74243000000001</c:v>
+                  <c:v>-431.74457000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>-431.74428</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-431.74409000000003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-431.74405000000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-431.74409000000003</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-431.74428</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-431.74428</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-431.74435999999997</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-431.74444</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-431.74448000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-431.74452000000002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-431.74453999999997</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-431.74506000000002</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-431.74455999999998</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-431.74455</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-431.74455</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-431.74453999999997</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-431.74453999999997</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-431.74459999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
                   <c:v>-431.74450999999999</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-431.74608000000001</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-431.74739</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-431.74838999999997</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-431.74925000000002</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-431.74979999999999</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-431.75027999999998</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-431.75071000000003</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-431.75105000000002</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-431.75133</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-431.75157000000002</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-431.75153999999998</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>-431.75205</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>-431.75196</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-              <c15:filteredSeriesTitle>
-                <c15:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>coul28!#REF!</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>#REF!</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c15:tx>
-              </c15:filteredSeriesTitle>
-            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-714C-4CBC-BA90-50E91B0A1AD7}"/>
+              <c16:uniqueId val="{00000000-0A60-4998-9747-C85D846826EC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3408,6 +4224,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>coul cut</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3453,6 +4325,8 @@
         <c:axId val="508269632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="-431.74299999999999"/>
+          <c:min val="-431.75299999999999"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3470,6 +4344,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>energy</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.0000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3556,6 +4486,605 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>buck cut 14</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>buck14!$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>14</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>buck14!$C$4:$C$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>buck14!$E$4:$E$31</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000000</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>4.6897641999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.6897640000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.6897637999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.6897640000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.6897641999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.6897643000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.6897631000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.6897633000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.6897637000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.6897641999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.6897646999999996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.6897646999999996</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.6897659000000003</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.6897640000000003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.6897640000000003</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.6897639</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.6897624000000002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.6897650999999998</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.6897618999999997</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.6897641999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.6897378999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.6897647999999998</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.6897624999999996</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.6897628999999998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.6897634000000004</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4.6897609999999998</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4.6897117000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4.6897636</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-00CE-49D9-8D61-FE97A505AC60}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="507761640"/>
+        <c:axId val="507761968"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="507761640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>coul cut</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="507761968"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="507761968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="4.6899999999999995"/>
+          <c:min val="4.6894999999999998"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>a lattice parameter</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00000" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="507761640"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
@@ -3591,7 +5120,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>cell a</a:t>
+              <a:t>coul cut 28</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -3737,6 +5266,583 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
+              <c:f>coul28!$D$4:$D$26</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>-431.58983999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-431.63956999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-431.68216999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-431.70553000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-431.72106000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-431.72930000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-431.73423000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-431.7321</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-431.74243000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-431.74450999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-431.74608000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-431.74739</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-431.74838999999997</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-431.74925000000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-431.74979999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-431.75027999999998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-431.75071000000003</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-431.75105000000002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-431.75133</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-431.75157000000002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-431.75153999999998</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-431.75205</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-431.75196</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredSeriesTitle>
+                <c15:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>coul28!#REF!</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>#REF!</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c15:tx>
+              </c15:filteredSeriesTitle>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-714C-4CBC-BA90-50E91B0A1AD7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="508269304"/>
+        <c:axId val="508269632"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="508269304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>buck cut</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="508269632"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="508269632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>energy</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="508269304"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>coul cut 28</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>coul28!$B$4:$B$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>27</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
               <c:f>coul28!$E$4:$E$26</c:f>
               <c:numCache>
                 <c:formatCode>0.0000000</c:formatCode>
@@ -3873,6 +5979,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>buck cut</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3918,6 +6080,8 @@
         <c:axId val="507761968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="4.6919999999999993"/>
+          <c:min val="4.6884999999999994"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3935,6 +6099,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>a lattice parameter</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.0000" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -4021,7 +6241,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4056,7 +6276,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>nrg</a:t>
+              <a:t>coul cut 8</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -4338,6 +6558,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>buck cut</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -4400,6 +6676,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>energy</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.0000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -4438,471 +6770,6 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="508269304"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>cell a</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>coul8!$B$4:$B$26</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>27</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>coul8!$E$4:$E$26</c:f>
-              <c:numCache>
-                <c:formatCode>0.0000000</c:formatCode>
-                <c:ptCount val="23"/>
-                <c:pt idx="0">
-                  <c:v>4.6916076000000002</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.6908513000000003</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.6904196000000002</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.6901501999999997</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.6900209999999998</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.6899385000000002</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.6898606000000003</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4.6898197000000001</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4.6897843999999997</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4.6897633000000001</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>4.6897479999999998</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>4.6897342000000002</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4.6897237000000001</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>4.6897153999999999</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>4.6897092000000002</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>4.6897038000000002</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>4.6897000999999996</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>4.6896959999999996</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>4.6896934999999997</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>4.6896908000000002</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>4.6896887999999999</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>4.6896871000000004</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>4.6896854000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-              <c15:filteredSeriesTitle>
-                <c15:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>coul8!#REF!</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>#REF!</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c15:tx>
-              </c15:filteredSeriesTitle>
-            </c:ext>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F522-4F14-91E6-E532028F2AA4}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="507761640"/>
-        <c:axId val="507761968"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="507761640"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="507761968"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="507761968"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0.0000" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="507761640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5032,6 +6899,46 @@
 </file>
 
 <file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -6939,7 +8846,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7455,7 +9362,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7971,7 +9878,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8487,7 +10394,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9003,7 +10910,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9519,7 +11426,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -10035,7 +11942,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -10551,7 +12458,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -11067,102 +12974,523 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>300037</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>100012</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>604837</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>90487</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>290512</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>109537</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>595312</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>100012</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>109537</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -11215,6 +13543,71 @@
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>300037</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>604837</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>290512</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>595312</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -11438,6 +13831,75 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>300037</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>604837</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>290512</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>595312</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -11701,10 +14163,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:N40"/>
+  <dimension ref="B2:E40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N4" sqref="N4:N31"/>
+      <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -11713,7 +14175,7 @@
     <col min="5" max="5" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B2">
         <v>14</v>
       </c>
@@ -11727,528 +14189,416 @@
         <v>4.6897633000000001</v>
       </c>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B4">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" s="1">
-        <v>-431.75015999999999</v>
+        <v>-431.75198</v>
       </c>
       <c r="E4" s="2">
-        <v>4.6897092999999996</v>
-      </c>
-      <c r="N4">
-        <f>D4*E4</f>
-        <v>-2024.7827406284878</v>
-      </c>
-    </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.2">
+        <v>4.6896861999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B5">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="D5" s="1">
-        <v>-431.75017000000003</v>
+        <v>-431.75198</v>
       </c>
       <c r="E5" s="2">
-        <v>4.6897000000000002</v>
-      </c>
-      <c r="N5">
-        <f t="shared" ref="N5:N31" si="0">D5*E5</f>
-        <v>-2024.7787722490002</v>
-      </c>
-    </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.2">
+        <v>4.6896861000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B6">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C6">
         <v>3</v>
       </c>
       <c r="D6" s="1">
-        <v>-431.75027</v>
+        <v>-431.75207999999998</v>
       </c>
       <c r="E6" s="2">
-        <v>4.6897042999999998</v>
-      </c>
-      <c r="N6">
-        <f t="shared" si="0"/>
-        <v>-2024.7810977451609</v>
-      </c>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.2">
+        <v>4.6896858999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B7">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C7">
         <v>4</v>
       </c>
       <c r="D7" s="1">
-        <v>-431.75018999999998</v>
+        <v>-431.75200999999998</v>
       </c>
       <c r="E7" s="2">
-        <v>4.6897045000000004</v>
-      </c>
-      <c r="N7">
-        <f t="shared" si="0"/>
-        <v>-2024.780808918855</v>
-      </c>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.2">
+        <v>4.6896861000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B8">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C8">
         <v>5</v>
       </c>
       <c r="D8" s="1">
-        <v>-431.74986999999999</v>
+        <v>-431.75166999999999</v>
       </c>
       <c r="E8" s="2">
-        <v>4.6896852000000004</v>
-      </c>
-      <c r="N8">
-        <f t="shared" si="0"/>
-        <v>-2024.7709754409241</v>
-      </c>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.2">
+        <v>4.6896870000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B9">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C9">
         <v>6</v>
       </c>
       <c r="D9" s="1">
-        <v>-431.75002000000001</v>
+        <v>-431.75184000000002</v>
       </c>
       <c r="E9" s="2">
-        <v>4.6897048000000003</v>
-      </c>
-      <c r="N9">
-        <f t="shared" si="0"/>
-        <v>-2024.7801411940961</v>
-      </c>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.2">
+        <v>4.6896864000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B10">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C10">
         <v>7</v>
       </c>
       <c r="D10" s="1">
-        <v>-431.75042999999999</v>
+        <v>-431.75225</v>
       </c>
       <c r="E10" s="2">
-        <v>4.6897035999999996</v>
-      </c>
-      <c r="N10">
-        <f t="shared" si="0"/>
-        <v>-2024.7815458725479</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.2">
+        <v>4.6896852000000004</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B11">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C11">
         <v>8</v>
       </c>
       <c r="D11" s="1">
-        <v>-431.75056000000001</v>
+        <v>-431.75236999999998</v>
       </c>
       <c r="E11" s="2">
-        <v>4.6897038000000002</v>
-      </c>
-      <c r="N11">
-        <f t="shared" si="0"/>
-        <v>-2024.7822418841281</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.2">
+        <v>4.6896854000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B12">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C12">
         <v>9</v>
       </c>
       <c r="D12" s="1">
-        <v>-431.75031000000001</v>
+        <v>-431.75216</v>
       </c>
       <c r="E12" s="2">
-        <v>4.6897161000000001</v>
-      </c>
-      <c r="N12">
-        <f t="shared" si="0"/>
-        <v>-2024.7863799869911</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.2">
+        <v>4.6896857000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B13">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C13">
         <v>10</v>
       </c>
       <c r="D13" s="1">
-        <v>-431.75006000000002</v>
+        <v>-431.75187</v>
       </c>
       <c r="E13" s="2">
-        <v>4.6897047000000001</v>
-      </c>
-      <c r="N13">
-        <f t="shared" si="0"/>
-        <v>-2024.7802856072822</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.2">
+        <v>4.6896863</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B14">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C14">
         <v>11</v>
       </c>
       <c r="D14" s="1">
-        <v>-431.74986000000001</v>
+        <v>-431.75166999999999</v>
       </c>
       <c r="E14" s="2">
-        <v>4.6897051999999997</v>
-      </c>
-      <c r="N14">
-        <f t="shared" si="0"/>
-        <v>-2024.779563541272</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.2">
+        <v>4.6896867999999996</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B15">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C15">
         <v>12</v>
       </c>
       <c r="D15" s="1">
-        <v>-431.74982999999997</v>
+        <v>-431.75164000000001</v>
       </c>
       <c r="E15" s="2">
-        <v>4.6897051000000003</v>
-      </c>
-      <c r="N15">
-        <f t="shared" si="0"/>
-        <v>-2024.779379675133</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.2">
+        <v>4.6896867999999996</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B16">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C16">
         <v>13</v>
       </c>
       <c r="D16" s="1">
-        <v>-431.74986999999999</v>
+        <v>-431.75168000000002</v>
       </c>
       <c r="E16" s="2">
-        <v>4.6897069</v>
-      </c>
-      <c r="N16">
-        <f t="shared" si="0"/>
-        <v>-2024.780344413103</v>
-      </c>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.2">
+        <v>4.6896883000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C17">
         <v>14</v>
       </c>
       <c r="D17" s="1">
-        <v>-431.74995999999999</v>
+        <v>-431.75178</v>
       </c>
       <c r="E17" s="2">
-        <v>4.6897041000000002</v>
-      </c>
-      <c r="N17">
-        <f t="shared" si="0"/>
-        <v>-2024.7795575868361</v>
-      </c>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.2">
+        <v>4.6896883000000003</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C18">
         <v>15</v>
       </c>
       <c r="D18" s="1">
-        <v>-431.75006000000002</v>
+        <v>-431.75187</v>
       </c>
       <c r="E18" s="2">
-        <v>4.6897045000000004</v>
-      </c>
-      <c r="N18">
-        <f t="shared" si="0"/>
-        <v>-2024.7801992572702</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.2">
+        <v>4.6896861000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B19">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C19">
         <v>16</v>
       </c>
       <c r="D19" s="1">
-        <v>-431.75013999999999</v>
+        <v>-431.75195000000002</v>
       </c>
       <c r="E19" s="2">
-        <v>4.6897044000000001</v>
-      </c>
-      <c r="N19">
-        <f t="shared" si="0"/>
-        <v>-2024.7805312586161</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.2">
+        <v>4.689686</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B20">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C20">
         <v>17</v>
       </c>
       <c r="D20" s="1">
-        <v>-431.75020999999998</v>
+        <v>-431.75202000000002</v>
       </c>
       <c r="E20" s="2">
-        <v>4.6897029000000003</v>
-      </c>
-      <c r="N20">
-        <f t="shared" si="0"/>
-        <v>-2024.780211912609</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.2">
+        <v>4.6896845000000003</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B21">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C21">
         <v>18</v>
       </c>
       <c r="D21" s="1">
-        <v>-431.75026000000003</v>
+        <v>-431.75207</v>
       </c>
       <c r="E21" s="2">
-        <v>4.6897055999999999</v>
-      </c>
-      <c r="N21">
-        <f t="shared" si="0"/>
-        <v>-2024.7816121234562</v>
-      </c>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.2">
+        <v>4.6896871999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B22">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C22">
         <v>19</v>
       </c>
       <c r="D22" s="1">
-        <v>-431.75029999999998</v>
+        <v>-431.75211000000002</v>
       </c>
       <c r="E22" s="2">
-        <v>4.6897023000000004</v>
-      </c>
-      <c r="N22">
-        <f t="shared" si="0"/>
-        <v>-2024.7803749356901</v>
-      </c>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.2">
+        <v>4.6896839999999997</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B23">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C23">
         <v>20</v>
       </c>
       <c r="D23" s="1">
-        <v>-431.75031000000001</v>
+        <v>-431.75213000000002</v>
       </c>
       <c r="E23" s="2">
-        <v>4.6897047000000001</v>
-      </c>
-      <c r="N23">
-        <f t="shared" si="0"/>
-        <v>-2024.7814580334571</v>
-      </c>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.2">
+        <v>4.6896863</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B24">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C24">
         <v>21</v>
       </c>
       <c r="D24" s="1">
-        <v>-431.75036999999998</v>
+        <v>-431.75214</v>
       </c>
       <c r="E24" s="2">
-        <v>4.6897434999999996</v>
-      </c>
-      <c r="N24">
-        <f t="shared" si="0"/>
-        <v>-2024.7984913300947</v>
-      </c>
-    </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.2">
+        <v>4.6896845000000003</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B25">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C25">
         <v>22</v>
       </c>
       <c r="D25" s="1">
-        <v>-431.75033000000002</v>
+        <v>-431.75214</v>
       </c>
       <c r="E25" s="2">
-        <v>4.6897053</v>
-      </c>
-      <c r="N25">
-        <f t="shared" si="0"/>
-        <v>-2024.781810877749</v>
-      </c>
-    </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.2">
+        <v>4.6896868999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B26">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C26">
         <v>23</v>
       </c>
       <c r="D26" s="1">
-        <v>-431.75031999999999</v>
+        <v>-431.75213000000002</v>
       </c>
       <c r="E26" s="2">
-        <v>4.6897029999999997</v>
-      </c>
-      <c r="N26">
-        <f t="shared" si="0"/>
-        <v>-2024.7807709549597</v>
-      </c>
-    </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.2">
+        <v>4.6896845999999996</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B27">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C27">
         <v>24</v>
       </c>
       <c r="D27" s="1">
-        <v>-431.75033000000002</v>
+        <v>-431.75214</v>
       </c>
       <c r="E27" s="2">
-        <v>4.6897034</v>
-      </c>
-      <c r="N27">
-        <f t="shared" si="0"/>
-        <v>-2024.7809905521221</v>
-      </c>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.2">
+        <v>4.6896849999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B28">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C28">
         <v>25</v>
       </c>
       <c r="D28" s="1">
-        <v>-431.75031000000001</v>
+        <v>-431.75211999999999</v>
       </c>
       <c r="E28" s="2">
-        <v>4.6897038999999996</v>
-      </c>
-      <c r="N28">
-        <f t="shared" si="0"/>
-        <v>-2024.781112633209</v>
-      </c>
-    </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.2">
+        <v>4.6896855000000004</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B29">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C29">
         <v>26</v>
       </c>
       <c r="D29" s="1">
-        <v>-431.75038000000001</v>
+        <v>-431.75211999999999</v>
       </c>
       <c r="E29" s="2">
-        <v>4.6896826000000003</v>
-      </c>
-      <c r="N29">
-        <f t="shared" si="0"/>
-        <v>-2024.7722446293881</v>
-      </c>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.2">
+        <v>4.6896830999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B30">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C30">
         <v>27</v>
       </c>
       <c r="D30" s="1">
-        <v>-431.75044000000003</v>
+        <v>-431.75211000000002</v>
       </c>
       <c r="E30" s="2">
-        <v>4.6896921000000003</v>
-      </c>
-      <c r="N30">
-        <f t="shared" si="0"/>
-        <v>-2024.7766276395241</v>
-      </c>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.2">
+        <v>4.6896864999999996</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B31">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C31">
         <v>28</v>
       </c>
       <c r="D31" s="1">
-        <v>-431.75027999999998</v>
+        <v>-431.75209000000001</v>
       </c>
       <c r="E31" s="2">
-        <v>4.6897041000000002</v>
-      </c>
-      <c r="N31">
-        <f t="shared" si="0"/>
-        <v>-2024.7810582921479</v>
+        <v>4.6896858000000003</v>
       </c>
     </row>
     <row r="33" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D33" s="1">
         <f>AVERAGE(D4:D31)</f>
-        <v>-431.75019999999995</v>
+        <v>-431.75200428571424</v>
       </c>
       <c r="E33" s="1">
         <f>AVERAGE(E4:E31)</f>
-        <v>4.6897042821428556</v>
+        <v>4.6896859464285701</v>
       </c>
     </row>
     <row r="34" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D34" s="1">
         <f>_xlfn.STDEV.P(D4:D31)</f>
-        <v>1.9054433305305021E-4</v>
+        <v>1.8428294571472205E-4</v>
       </c>
       <c r="E34" s="1">
         <f>_xlfn.STDEV.P(E4:E31)</f>
-        <v>9.8649832947502571E-6</v>
+        <v>1.1487515406162502E-6</v>
       </c>
     </row>
     <row r="35" spans="4:5" x14ac:dyDescent="0.2">
@@ -12257,47 +14607,44 @@
     <row r="36" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D36" s="1">
         <f>MAX(D4:D31)</f>
-        <v>-431.74982999999997</v>
+        <v>-431.75164000000001</v>
       </c>
       <c r="E36" s="1">
         <f>MAX(E4:E31)</f>
-        <v>4.6897434999999996</v>
+        <v>4.6896883000000003</v>
       </c>
     </row>
     <row r="37" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D37" s="1">
         <f>MIN(D4:D31)</f>
-        <v>-431.75056000000001</v>
+        <v>-431.75236999999998</v>
       </c>
       <c r="E37" s="1">
         <f>MIN(E4:E31)</f>
-        <v>4.6896826000000003</v>
+        <v>4.6896830999999999</v>
       </c>
     </row>
     <row r="38" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D38" s="1">
         <f>D36-D37</f>
-        <v>7.3000000003276E-4</v>
+        <v>7.2999999997591658E-4</v>
       </c>
       <c r="E38" s="1">
         <f>E36-E37</f>
-        <v>6.089999999936424E-5</v>
+        <v>5.2000000003715741E-6</v>
       </c>
     </row>
     <row r="40" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D40" s="1">
         <f>ABS(D38/D33*100)</f>
-        <v>1.6907924999982863E-4</v>
+        <v>1.6907854340679216E-4</v>
       </c>
       <c r="E40" s="1">
         <f>ABS(E38/E33*100)</f>
-        <v>1.2985893424294409E-3</v>
+        <v>1.1088162533211065E-4</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="C4:E24">
-    <sortCondition ref="C4"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -12309,7 +14656,7 @@
   <dimension ref="B2:E40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D33" sqref="D33:E40"/>
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -12334,414 +14681,414 @@
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B4">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" s="1">
-        <v>-431.74437999999998</v>
+        <v>-431.75015999999999</v>
       </c>
       <c r="E4" s="2">
-        <v>4.6897641999999999</v>
+        <v>4.6897092999999996</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B5">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="D5" s="1">
-        <v>-431.74439000000001</v>
+        <v>-431.75017000000003</v>
       </c>
       <c r="E5" s="2">
-        <v>4.6897640000000003</v>
+        <v>4.6897000000000002</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B6">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C6">
         <v>3</v>
       </c>
       <c r="D6" s="1">
-        <v>-431.74450000000002</v>
+        <v>-431.75027</v>
       </c>
       <c r="E6" s="2">
-        <v>4.6897637999999997</v>
+        <v>4.6897042999999998</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B7">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C7">
         <v>4</v>
       </c>
       <c r="D7" s="1">
-        <v>-431.74441999999999</v>
+        <v>-431.75018999999998</v>
       </c>
       <c r="E7" s="2">
-        <v>4.6897640000000003</v>
+        <v>4.6897045000000004</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B8">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C8">
         <v>5</v>
       </c>
       <c r="D8" s="1">
-        <v>-431.74407000000002</v>
+        <v>-431.74986999999999</v>
       </c>
       <c r="E8" s="2">
-        <v>4.6897641999999999</v>
+        <v>4.6896852000000004</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B9">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C9">
         <v>6</v>
       </c>
       <c r="D9" s="1">
-        <v>-431.74425000000002</v>
+        <v>-431.75002000000001</v>
       </c>
       <c r="E9" s="2">
-        <v>4.6897643000000002</v>
+        <v>4.6897048000000003</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B10">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C10">
         <v>7</v>
       </c>
       <c r="D10" s="1">
-        <v>-431.74466000000001</v>
+        <v>-431.75042999999999</v>
       </c>
       <c r="E10" s="2">
-        <v>4.6897631000000004</v>
+        <v>4.6897035999999996</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B11">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C11">
         <v>8</v>
       </c>
       <c r="D11" s="1">
-        <v>-431.74477999999999</v>
+        <v>-431.75056000000001</v>
       </c>
       <c r="E11" s="2">
-        <v>4.6897633000000001</v>
+        <v>4.6897038000000002</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B12">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C12">
         <v>9</v>
       </c>
       <c r="D12" s="1">
-        <v>-431.74457000000001</v>
+        <v>-431.75031000000001</v>
       </c>
       <c r="E12" s="2">
-        <v>4.6897637000000003</v>
+        <v>4.6897161000000001</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B13">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C13">
         <v>10</v>
       </c>
       <c r="D13" s="1">
-        <v>-431.74428</v>
+        <v>-431.75006000000002</v>
       </c>
       <c r="E13" s="2">
-        <v>4.6897641999999999</v>
+        <v>4.6897047000000001</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B14">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C14">
         <v>11</v>
       </c>
       <c r="D14" s="1">
-        <v>-431.74409000000003</v>
+        <v>-431.74986000000001</v>
       </c>
       <c r="E14" s="2">
-        <v>4.6897646999999996</v>
+        <v>4.6897051999999997</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B15">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C15">
         <v>12</v>
       </c>
       <c r="D15" s="1">
-        <v>-431.74405000000002</v>
+        <v>-431.74982999999997</v>
       </c>
       <c r="E15" s="2">
-        <v>4.6897646999999996</v>
+        <v>4.6897051000000003</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B16">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C16">
         <v>13</v>
       </c>
       <c r="D16" s="1">
-        <v>-431.74409000000003</v>
+        <v>-431.74986999999999</v>
       </c>
       <c r="E16" s="2">
-        <v>4.6897659000000003</v>
+        <v>4.6897069</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C17">
         <v>14</v>
       </c>
       <c r="D17" s="1">
-        <v>-431.74428</v>
+        <v>-431.74995999999999</v>
       </c>
       <c r="E17" s="2">
-        <v>4.6897640000000003</v>
+        <v>4.6897041000000002</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C18">
         <v>15</v>
       </c>
       <c r="D18" s="1">
-        <v>-431.74428</v>
+        <v>-431.75006000000002</v>
       </c>
       <c r="E18" s="2">
-        <v>4.6897640000000003</v>
+        <v>4.6897045000000004</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B19">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C19">
         <v>16</v>
       </c>
       <c r="D19" s="1">
-        <v>-431.74435999999997</v>
+        <v>-431.75013999999999</v>
       </c>
       <c r="E19" s="2">
-        <v>4.6897639</v>
+        <v>4.6897044000000001</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B20">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C20">
         <v>17</v>
       </c>
       <c r="D20" s="1">
-        <v>-431.74444</v>
+        <v>-431.75020999999998</v>
       </c>
       <c r="E20" s="2">
-        <v>4.6897624000000002</v>
+        <v>4.6897029000000003</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B21">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C21">
         <v>18</v>
       </c>
       <c r="D21" s="1">
-        <v>-431.74448000000001</v>
+        <v>-431.75026000000003</v>
       </c>
       <c r="E21" s="2">
-        <v>4.6897650999999998</v>
+        <v>4.6897055999999999</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B22">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C22">
         <v>19</v>
       </c>
       <c r="D22" s="1">
-        <v>-431.74452000000002</v>
+        <v>-431.75029999999998</v>
       </c>
       <c r="E22" s="2">
-        <v>4.6897618999999997</v>
+        <v>4.6897023000000004</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B23">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C23">
         <v>20</v>
       </c>
       <c r="D23" s="1">
-        <v>-431.74453999999997</v>
+        <v>-431.75031000000001</v>
       </c>
       <c r="E23" s="2">
-        <v>4.6897641999999999</v>
+        <v>4.6897047000000001</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B24">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C24">
         <v>21</v>
       </c>
       <c r="D24" s="1">
-        <v>-431.74506000000002</v>
+        <v>-431.75036999999998</v>
       </c>
       <c r="E24" s="2">
-        <v>4.6897378999999999</v>
+        <v>4.6897434999999996</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B25">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C25">
         <v>22</v>
       </c>
       <c r="D25" s="1">
-        <v>-431.74455999999998</v>
+        <v>-431.75033000000002</v>
       </c>
       <c r="E25" s="2">
-        <v>4.6897647999999998</v>
+        <v>4.6897053</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B26">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C26">
         <v>23</v>
       </c>
       <c r="D26" s="1">
-        <v>-431.74455</v>
+        <v>-431.75031999999999</v>
       </c>
       <c r="E26" s="2">
-        <v>4.6897624999999996</v>
+        <v>4.6897029999999997</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B27">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C27">
         <v>24</v>
       </c>
       <c r="D27" s="1">
-        <v>-431.74455</v>
+        <v>-431.75033000000002</v>
       </c>
       <c r="E27" s="2">
-        <v>4.6897628999999998</v>
+        <v>4.6897034</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B28">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C28">
         <v>25</v>
       </c>
       <c r="D28" s="1">
-        <v>-431.74453999999997</v>
+        <v>-431.75031000000001</v>
       </c>
       <c r="E28" s="2">
-        <v>4.6897634000000004</v>
+        <v>4.6897038999999996</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B29">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C29">
         <v>26</v>
       </c>
       <c r="D29" s="1">
-        <v>-431.74453999999997</v>
+        <v>-431.75038000000001</v>
       </c>
       <c r="E29" s="2">
-        <v>4.6897609999999998</v>
+        <v>4.6896826000000003</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B30">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C30">
         <v>27</v>
       </c>
       <c r="D30" s="1">
-        <v>-431.74459999999999</v>
+        <v>-431.75044000000003</v>
       </c>
       <c r="E30" s="2">
-        <v>4.6897117000000001</v>
+        <v>4.6896921000000003</v>
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B31">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C31">
         <v>28</v>
       </c>
       <c r="D31" s="1">
-        <v>-431.74450999999999</v>
+        <v>-431.75027999999998</v>
       </c>
       <c r="E31" s="2">
-        <v>4.6897636</v>
+        <v>4.6897041000000002</v>
       </c>
     </row>
     <row r="33" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D33" s="1">
         <f>AVERAGE(D4:D31)</f>
-        <v>-431.74444071428564</v>
+        <v>-431.75019999999995</v>
       </c>
       <c r="E33" s="1">
         <f>AVERAGE(E4:E31)</f>
-        <v>4.6897609785714289</v>
+        <v>4.6897042821428556</v>
       </c>
     </row>
     <row r="34" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D34" s="1">
         <f>_xlfn.STDEV.P(D4:D31)</f>
-        <v>2.1841848056174083E-4</v>
+        <v>1.9054433305305021E-4</v>
       </c>
       <c r="E34" s="1">
         <f>_xlfn.STDEV.P(E4:E31)</f>
-        <v>1.0672004669843714E-5</v>
+        <v>9.8649832947502571E-6</v>
       </c>
     </row>
     <row r="35" spans="4:5" x14ac:dyDescent="0.2">
@@ -12750,44 +15097,47 @@
     <row r="36" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D36" s="1">
         <f>MAX(D4:D31)</f>
-        <v>-431.74405000000002</v>
+        <v>-431.74982999999997</v>
       </c>
       <c r="E36" s="1">
         <f>MAX(E4:E31)</f>
-        <v>4.6897659000000003</v>
+        <v>4.6897434999999996</v>
       </c>
     </row>
     <row r="37" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D37" s="1">
         <f>MIN(D4:D31)</f>
-        <v>-431.74506000000002</v>
+        <v>-431.75056000000001</v>
       </c>
       <c r="E37" s="1">
         <f>MIN(E4:E31)</f>
-        <v>4.6897117000000001</v>
+        <v>4.6896826000000003</v>
       </c>
     </row>
     <row r="38" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D38" s="1">
         <f>D36-D37</f>
-        <v>1.010000000007949E-3</v>
+        <v>7.3000000003276E-4</v>
       </c>
       <c r="E38" s="1">
         <f>E36-E37</f>
-        <v>5.4200000000115267E-5</v>
+        <v>6.089999999936424E-5</v>
       </c>
     </row>
     <row r="40" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D40" s="1">
         <f>ABS(D38/D33*100)</f>
-        <v>2.3393468560637098E-4</v>
+        <v>1.6907924999982863E-4</v>
       </c>
       <c r="E40" s="1">
         <f>ABS(E38/E33*100)</f>
-        <v>1.1557092194627238E-3</v>
+        <v>1.2985893424294409E-3</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="C4:E24">
+    <sortCondition ref="C4"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -12796,10 +15146,500 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:E40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="9.140625" style="1"/>
+    <col min="5" max="5" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B2">
+        <v>14</v>
+      </c>
+      <c r="C2">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1">
+        <v>-431.74477999999999</v>
+      </c>
+      <c r="E2" s="2">
+        <v>4.6897633000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B4">
+        <v>14</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
+        <v>-431.74437999999998</v>
+      </c>
+      <c r="E4" s="2">
+        <v>4.6897641999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B5">
+        <v>14</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1">
+        <v>-431.74439000000001</v>
+      </c>
+      <c r="E5" s="2">
+        <v>4.6897640000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6">
+        <v>14</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1">
+        <v>-431.74450000000002</v>
+      </c>
+      <c r="E6" s="2">
+        <v>4.6897637999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B7">
+        <v>14</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7" s="1">
+        <v>-431.74441999999999</v>
+      </c>
+      <c r="E7" s="2">
+        <v>4.6897640000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B8">
+        <v>14</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8" s="1">
+        <v>-431.74407000000002</v>
+      </c>
+      <c r="E8" s="2">
+        <v>4.6897641999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B9">
+        <v>14</v>
+      </c>
+      <c r="C9">
+        <v>6</v>
+      </c>
+      <c r="D9" s="1">
+        <v>-431.74425000000002</v>
+      </c>
+      <c r="E9" s="2">
+        <v>4.6897643000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B10">
+        <v>14</v>
+      </c>
+      <c r="C10">
+        <v>7</v>
+      </c>
+      <c r="D10" s="1">
+        <v>-431.74466000000001</v>
+      </c>
+      <c r="E10" s="2">
+        <v>4.6897631000000004</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B11">
+        <v>14</v>
+      </c>
+      <c r="C11">
+        <v>8</v>
+      </c>
+      <c r="D11" s="1">
+        <v>-431.74477999999999</v>
+      </c>
+      <c r="E11" s="2">
+        <v>4.6897633000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B12">
+        <v>14</v>
+      </c>
+      <c r="C12">
+        <v>9</v>
+      </c>
+      <c r="D12" s="1">
+        <v>-431.74457000000001</v>
+      </c>
+      <c r="E12" s="2">
+        <v>4.6897637000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B13">
+        <v>14</v>
+      </c>
+      <c r="C13">
+        <v>10</v>
+      </c>
+      <c r="D13" s="1">
+        <v>-431.74428</v>
+      </c>
+      <c r="E13" s="2">
+        <v>4.6897641999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B14">
+        <v>14</v>
+      </c>
+      <c r="C14">
+        <v>11</v>
+      </c>
+      <c r="D14" s="1">
+        <v>-431.74409000000003</v>
+      </c>
+      <c r="E14" s="2">
+        <v>4.6897646999999996</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15">
+        <v>12</v>
+      </c>
+      <c r="D15" s="1">
+        <v>-431.74405000000002</v>
+      </c>
+      <c r="E15" s="2">
+        <v>4.6897646999999996</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B16">
+        <v>14</v>
+      </c>
+      <c r="C16">
+        <v>13</v>
+      </c>
+      <c r="D16" s="1">
+        <v>-431.74409000000003</v>
+      </c>
+      <c r="E16" s="2">
+        <v>4.6897659000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B17">
+        <v>14</v>
+      </c>
+      <c r="C17">
+        <v>14</v>
+      </c>
+      <c r="D17" s="1">
+        <v>-431.74428</v>
+      </c>
+      <c r="E17" s="2">
+        <v>4.6897640000000003</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B18">
+        <v>14</v>
+      </c>
+      <c r="C18">
+        <v>15</v>
+      </c>
+      <c r="D18" s="1">
+        <v>-431.74428</v>
+      </c>
+      <c r="E18" s="2">
+        <v>4.6897640000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B19">
+        <v>14</v>
+      </c>
+      <c r="C19">
+        <v>16</v>
+      </c>
+      <c r="D19" s="1">
+        <v>-431.74435999999997</v>
+      </c>
+      <c r="E19" s="2">
+        <v>4.6897639</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B20">
+        <v>14</v>
+      </c>
+      <c r="C20">
+        <v>17</v>
+      </c>
+      <c r="D20" s="1">
+        <v>-431.74444</v>
+      </c>
+      <c r="E20" s="2">
+        <v>4.6897624000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B21">
+        <v>14</v>
+      </c>
+      <c r="C21">
+        <v>18</v>
+      </c>
+      <c r="D21" s="1">
+        <v>-431.74448000000001</v>
+      </c>
+      <c r="E21" s="2">
+        <v>4.6897650999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B22">
+        <v>14</v>
+      </c>
+      <c r="C22">
+        <v>19</v>
+      </c>
+      <c r="D22" s="1">
+        <v>-431.74452000000002</v>
+      </c>
+      <c r="E22" s="2">
+        <v>4.6897618999999997</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B23">
+        <v>14</v>
+      </c>
+      <c r="C23">
+        <v>20</v>
+      </c>
+      <c r="D23" s="1">
+        <v>-431.74453999999997</v>
+      </c>
+      <c r="E23" s="2">
+        <v>4.6897641999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B24">
+        <v>14</v>
+      </c>
+      <c r="C24">
+        <v>21</v>
+      </c>
+      <c r="D24" s="1">
+        <v>-431.74506000000002</v>
+      </c>
+      <c r="E24" s="2">
+        <v>4.6897378999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B25">
+        <v>14</v>
+      </c>
+      <c r="C25">
+        <v>22</v>
+      </c>
+      <c r="D25" s="1">
+        <v>-431.74455999999998</v>
+      </c>
+      <c r="E25" s="2">
+        <v>4.6897647999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B26">
+        <v>14</v>
+      </c>
+      <c r="C26">
+        <v>23</v>
+      </c>
+      <c r="D26" s="1">
+        <v>-431.74455</v>
+      </c>
+      <c r="E26" s="2">
+        <v>4.6897624999999996</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B27">
+        <v>14</v>
+      </c>
+      <c r="C27">
+        <v>24</v>
+      </c>
+      <c r="D27" s="1">
+        <v>-431.74455</v>
+      </c>
+      <c r="E27" s="2">
+        <v>4.6897628999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B28">
+        <v>14</v>
+      </c>
+      <c r="C28">
+        <v>25</v>
+      </c>
+      <c r="D28" s="1">
+        <v>-431.74453999999997</v>
+      </c>
+      <c r="E28" s="2">
+        <v>4.6897634000000004</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B29">
+        <v>14</v>
+      </c>
+      <c r="C29">
+        <v>26</v>
+      </c>
+      <c r="D29" s="1">
+        <v>-431.74453999999997</v>
+      </c>
+      <c r="E29" s="2">
+        <v>4.6897609999999998</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B30">
+        <v>14</v>
+      </c>
+      <c r="C30">
+        <v>27</v>
+      </c>
+      <c r="D30" s="1">
+        <v>-431.74459999999999</v>
+      </c>
+      <c r="E30" s="2">
+        <v>4.6897117000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B31">
+        <v>14</v>
+      </c>
+      <c r="C31">
+        <v>28</v>
+      </c>
+      <c r="D31" s="1">
+        <v>-431.74450999999999</v>
+      </c>
+      <c r="E31" s="2">
+        <v>4.6897636</v>
+      </c>
+    </row>
+    <row r="33" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D33" s="1">
+        <f>AVERAGE(D4:D31)</f>
+        <v>-431.74444071428564</v>
+      </c>
+      <c r="E33" s="1">
+        <f>AVERAGE(E4:E31)</f>
+        <v>4.6897609785714289</v>
+      </c>
+    </row>
+    <row r="34" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D34" s="1">
+        <f>_xlfn.STDEV.P(D4:D31)</f>
+        <v>2.1841848056174083E-4</v>
+      </c>
+      <c r="E34" s="1">
+        <f>_xlfn.STDEV.P(E4:E31)</f>
+        <v>1.0672004669843714E-5</v>
+      </c>
+    </row>
+    <row r="35" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E35" s="1"/>
+    </row>
+    <row r="36" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D36" s="1">
+        <f>MAX(D4:D31)</f>
+        <v>-431.74405000000002</v>
+      </c>
+      <c r="E36" s="1">
+        <f>MAX(E4:E31)</f>
+        <v>4.6897659000000003</v>
+      </c>
+    </row>
+    <row r="37" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D37" s="1">
+        <f>MIN(D4:D31)</f>
+        <v>-431.74506000000002</v>
+      </c>
+      <c r="E37" s="1">
+        <f>MIN(E4:E31)</f>
+        <v>4.6897117000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D38" s="1">
+        <f>D36-D37</f>
+        <v>1.010000000007949E-3</v>
+      </c>
+      <c r="E38" s="1">
+        <f>E36-E37</f>
+        <v>5.4200000000115267E-5</v>
+      </c>
+    </row>
+    <row r="40" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D40" s="1">
+        <f>ABS(D38/D33*100)</f>
+        <v>2.3393468560637098E-4</v>
+      </c>
+      <c r="E40" s="1">
+        <f>ABS(E38/E33*100)</f>
+        <v>1.1557092194627238E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:E35"/>
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -13214,12 +16054,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -13634,7 +16474,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E40"/>
   <sheetViews>
